--- a/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
+++ b/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4587E3F0F3F1702A7FA9CBE5171A2C5C9C1A06C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perin\OneDrive\BISU-BILAR\Makasa Lab\ACADEMIC-SCHOLARLY-AND-PRACTICAL-APPLIED-WORKS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168481B-2A10-45A3-8505-592E4650212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +32,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRELIMINARY RESULTS ON DIGITAL ESKAYAN CHARACTER RECOGNITION USING A K-NEAREST NEIGHBORS-ALGORITHM </t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Affliation</t>
+  </si>
+  <si>
+    <t>Master of Science in Computer Science 2, S.Y. 2020-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX ANGELO D. PERIN, </t>
+  </si>
+  <si>
+    <t>Presented</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Master of Science in Computer Science 2 in CCS 696 – Intelligent System 2 S.Y. 2020-2021, 1st Semester, Cebu Institute of Technology-University, Cebu City, Republic of the Philippines. APA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,8 +101,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,26 +423,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="52.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010039D1DEEADAC1A5458EF0D48482917E3D" ma:contentTypeVersion="36" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7aea47dc6ae66664ea90708d5997129">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xmlns:ns3="d7bec7bf-3da8-4078-8aa6-220bab9f77bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98593b28f1f0b1cf1ed3518b24bbb869" ns2:_="" ns3:_="">
     <xsd:import namespace="64465c1d-2775-432b-8ccf-8b9a5bbd2975"/>
@@ -824,6 +915,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -881,13 +981,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE1C7E4-455D-434D-B571-2B64DF7AE606}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3E60AE-CFEB-40B7-B274-53261BB6A31F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="64465c1d-2775-432b-8ccf-8b9a5bbd2975"/>
+    <ds:schemaRef ds:uri="d7bec7bf-3da8-4078-8aa6-220bab9f77bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3E60AE-CFEB-40B7-B274-53261BB6A31F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE1C7E4-455D-434D-B571-2B64DF7AE606}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8EB3D1-86FA-41D2-9F48-D030848D8DA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8EB3D1-86FA-41D2-9F48-D030848D8DA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64465c1d-2775-432b-8ccf-8b9a5bbd2975"/>
+    <ds:schemaRef ds:uri="d7bec7bf-3da8-4078-8aa6-220bab9f77bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
+++ b/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perin\OneDrive\BISU-BILAR\Makasa Lab\ACADEMIC-SCHOLARLY-AND-PRACTICAL-APPLIED-WORKS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2b7f844a7ade77c/Documents/GitHub/ACADEMIC-SCHOLARLY-AND-PRACTICAL-APPLIED-WORKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1168481B-2A10-45A3-8505-592E4650212E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B49B52A3-B6CA-4DEF-828A-6BBF2E9D54A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AA6B7A1-28EF-4A13-97CB-1C3EE6910DC4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="725">
   <si>
     <t>Number</t>
   </si>
@@ -53,20 +40,2312 @@
     <t>Master of Science in Computer Science 2, S.Y. 2020-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">MAX ANGELO D. PERIN, </t>
-  </si>
-  <si>
     <t>Presented</t>
   </si>
   <si>
     <t>Research Project Presentation for Master of Science in Computer Science 2 in CCS 696 – Intelligent System 2 S.Y. 2020-2021, 1st Semester, Cebu Institute of Technology-University, Cebu City, Republic of the Philippines. APA</t>
+  </si>
+  <si>
+    <t>Max Angelo Dapitilla Perin, Vladimir Y. Mariano</t>
+  </si>
+  <si>
+    <t>EskayApp: An Eskaya-Latin Script OCR Transliteration e-Learning Android Application using Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Master of Science in Computer Science 2 in CCS 697 – Research Methods S.Y. 2020-2021, 1st Semester, Cebu Institute of Technology-University, Cebu City, Republic of the Philippines. ACM SIG Proceedings</t>
+  </si>
+  <si>
+    <t>THE DESIGN AND IMPLEMENTATION OF A SMART TRASH BIN FOR QUARANTINE CENTERS IN BOHOL</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 1st Semester, S.Y. 2020-2021-Microprocessors for Industrial Design, 1st Sem, S.Y.  2020-2021</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Fine Arts major in Industrial Design 3 in CPE 1 – Microprocessors 1 S.Y. 2020-2021, 1st Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM SIG Proceedings</t>
+  </si>
+  <si>
+    <t>Master of Science in Computer Science 2, S.Y. 2020-2022</t>
+  </si>
+  <si>
+    <t>USING SANITATION REMINDER SENSOR DEVICE TO EASE RAPID INFECTIONS OF VIRUSES IN BOHOL ISLAND STATE UNIVERSITY MAIN CAMPUS</t>
+  </si>
+  <si>
+    <t>Max Angelo Dapitilla Perin, Larmie Feliscuzo, Cherry Lyn C Sta Romana</t>
+  </si>
+  <si>
+    <t>THE EFFECTIVENESS OF MODERN TECHNOLOGY FOR PUBLIC WASTE SEGREGATION PROBLEM AND WASTE RECYCLING IN TAGBILARAN CITY</t>
+  </si>
+  <si>
+    <t>THE IMPLEMENTATION OF A HOME SANITARY SENSOR IN TAGBILARAN CITY</t>
+  </si>
+  <si>
+    <t>THE DESIGN AND IMPLEMENTATION OF SOCIAL DISTANCING BRACELET DETECTOR FOR EVERY PUBLIC TRANSPORTATION IN BOHOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMPLEMENTING AUTOMATIC DOOR HANDLE SANITIZER USING ARDUINO ON BISU-MC;</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 1st Semester, S.Y. 2020-2021-Microprocessor Systems for Mechanical Engineering, 1st Sem, S.Y.  2020-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECKING GAS LEAK USING ARDUINO SENSOR ON BISU-MC CAFETERIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAF FRIENDLY ARDUINO BASED BABY MONITOR IN HAPPY VALLEY, TEJERO, JAGNA, BOHOL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 HAND WASH TIMER WITH ULTRASONIC SENSOR FOR BARANGAY POBLACION, BACLAYON HEALTH CENTER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTION SENSOR APPLICATION ON LIGHTING INSTALLATION FOR ENERGY SAVING IN GUIWANON, BACLAYON MULTI-PURPOSE HALL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTANCE DETECTOR DEVICE FOR BSME 3A, STUDENTS OF BOHOL ISLAND STATE UNIVERSITY - MC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANITY MIRROR WITH AUTOMATIC LIGHTING SYSTEM: A PROPOSED INTERIOR DESIGN FOR HENNAN RESORT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTACHABLE ALARM SYSTEM DEVICE FOR THEFT AND INTRUSION PREVENTION IN UBUJAN DISTRICT TAGBILARAN CITY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS DETECTING ALARM SYSTEM IN SOUTHERN STAR ORDINARY PUBLIC BUSES THROUGHOUT BOHOL: AN ARDUINO PROJECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW SOCIAL DISTANCING INDICATOR AND ALARM SYSTEM USING ARDUINO FOR INTEGRATED BUS TERMINAL </t>
+  </si>
+  <si>
+    <t>USE OF PASSWORD-PROTECTED DOOR LOCK SYSTEM WITH ARDUINO IN THE BOARDING HOUSES OF 0012 ESPUELAS ST., COGON DISTRICT, TAGBILARAN CITY</t>
+  </si>
+  <si>
+    <t>Jhanry Vern Batabat, Rhea Mae Gonzales Palban, Rhean Angela Anasco, Lorren Aguilor, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Maria Jhovilyn Gonzaga, Nina Marie Tinapay, Ma. Jorgie Darunday, Kylle Jocielle Pondoc, Christian Ayuban, MA JORJIE DARUNDAY, KYELLE JOCIELLE PUNDOC, Nena Cagas, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Licayan Gerven Christian, April Mae Tabilo, Brevin Peter Tagsa, Joan Napitan, Gilie May Margatinez, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Genie Ann Betonio, Amorlina Burguite, Winelyn Caderao, John Aris Apale Cimeni, Nikki Israel, Kent Carlo Lantaka, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Max Angelo Dapitilla Perin, Rico Padrique, Carlo Estomata, Rosemarie Bersabal, Daniella Mae Luma-ad, Daisy Marie Lumictin, Jheany Vieve Inferido, Sarah Jane Tribunalo</t>
+  </si>
+  <si>
+    <t>Carl John Fuentes Amit, Melecio Perocho Jr, Roselito Curiba, Allemar Terec, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Merie Joie Villanueva Aranas, Kristine Marie Tagsip Cambalon, Nise Hinayas, Mark Leo Revilla, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Estorioso, Reggie Jr. Garin, Ma. Jelly Lungay, Millane Fe Auxtero Turtoga, Max Angelo Dapitilla Perin </t>
+  </si>
+  <si>
+    <t>Allaine Mae Toston, Max Angelo Dapitilla Perin, Dan Anino, Benedict Seloterio, Jay-R Llona</t>
+  </si>
+  <si>
+    <t>Aira Villamor, Max Angelo Dapitilla Perin, Alliah Jean Genita, Christian Mil Malanog, Joseph Bitas</t>
+  </si>
+  <si>
+    <t>Archie Cagadas, John Denver Esparrago, Christine Jane Nemeño Maniwang, Virgilio Jr. Omac, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Jhayson Bhelle Simangca Deloy, Reynan Namalata, Billy Philip Paul Maylon, Nilbert Saagundo, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Stephen Oldenaria, Gennie Lodonia, Michael Tampos, Max Angelo Dapitilla Perin, Gladys Delopere, Charlene Omila</t>
+  </si>
+  <si>
+    <t>Karl Tutor, Max Angelo Dapitilla Perin, Toni Angie Mendez, Genil Luke C. Gamutin, Michael Andri Cuyno Pino, Vernie Yucot</t>
+  </si>
+  <si>
+    <t>Max Angelo Dapitilla Perin, Rodel Licayan, Andrew Luis Bonsay, Iris Labrador, Kenneth Genita</t>
+  </si>
+  <si>
+    <t>Mark Adam Lonod, Jake Leokenneth Eleccion, Kevin Bitoy Bungabong, Eduardo Jr. Gallenero, Judy Ann Montoya, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAY DOGS OVERPOPULATION IN MUNICIPALITY OF DAUIS: CELLULAR PHONE TRACKING TECHNOLOGY </t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 1st Semester, S.Y. 2020-2021-Structure of Programming Languages, 1st Sem, S.Y. 2020-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATION SECURITY OF PROVINCIAL GOVERNMENT OF BOHOL </t>
+  </si>
+  <si>
+    <t>Max Angelo Dapitilla Perin, May Aisa, Rhyn Alm Inlagada Artiaga, Gea Marie Tangcawan Gromontil</t>
+  </si>
+  <si>
+    <t>Marjorie ann Amparo, Carla Brigide Galarido, Mary Jane Mandin, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 1st Semester, S.Y. 2020-2021-Introduction to Robotics. 1st Sem, S.Y.  2020-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obstacle Avoiding Wheelchair Robot to Bedridden Senior Citizens in Purok 5 Mayacabac, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Automated Flexible Temperature Checker, Sanitizer and Contact Tracer (DAFTCheSCT) Bot in Island City Mall Entrances </t>
+  </si>
+  <si>
+    <t>Automatic Rice Field Tractor for the Development of Carmen, Bohol</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Computer Engineering 3 in CPE 318 – Introduction to Robotics S.Y. 2020-2021, 1st Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM SIG Proceedings</t>
+  </si>
+  <si>
+    <t>Max Angelo Dapitilla Perin, Christopher Peligrino, Carl John Jaojao, John Rey Camilotes Mozo</t>
+  </si>
+  <si>
+    <t>Ivan Christopher Acal, Dennis Abriol, Jhon Christian Rey Tolop, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Max Angelo Dapitilla Perin, Kitt Cymonne Gulle Japson, Francis Joey Labuan, Ray John Man-on, Ric Ian Ludivese Jamora</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2020-2021-Microprocessor System for Computer Engineering, 2nd Sem, S.Y. 2020-2021</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Computer Engineering 3 in CPE 323 – Microprocessor System S.Y. 2020-2021, 2nd Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM SIG Proceedings</t>
+  </si>
+  <si>
+    <t>Robotic Wall Avoiding Vacuum Cleaner for Bohol Retirement Senior Care Villa Alburquerque Bohol</t>
+  </si>
+  <si>
+    <t>James Jumawan, Rhosell Calipusan, Rica Mae Gapas, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>ARDUINO-BASED GAS DETECTOR IN RESIDENTIAL HOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLAR-POWERED AUTOMATIC SPRINKLER WITH MESSAGING SYSTEM USING ARDUINO FOR LOCAL FARMERS IN CATIGBIAN, BOHOL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPLEMENTING ARDUINO BASED AUTOMATIC HOME AND OFFICE DISINFECTOR IN TAGBILARAN CITY </t>
+  </si>
+  <si>
+    <t>ARDUINO-BASED SOCIAL DISTANCING DETECTING WEARABLE FOR BOHOL ISLAND STATE UNIVERSITY – MAIN CAMPUS STUDENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPER FEEDER FOR PRINTER KIOSK USING ARDUINO MEGA FOR BOHOL ISLAND STATE UNIVERSITY-MAIN CAMPUS </t>
+  </si>
+  <si>
+    <t>A HUMAN TRAILING CART DESIGNED USING ARDUINO FOR BISU-MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUN TRACKING SOLAR PANEL USING ARDUINO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOMATED DOCUMENT FEEDER USING ARDUINO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPLEMENTING ARDUINO-BASED AUTOMATIC HAND SANITIZER IN JCSSI OFFICE IN GARCIA-HERNANDEZ </t>
+  </si>
+  <si>
+    <t>ARDUINO-BASED AUTOMATIC BUS DOOR WITH PASSENGER COUNTER SYSTEM IN BUSES ROUTING FROM TUBIGON TO TAGBILARAN CITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFEST ROUTE TO FIRE EXIT MAPPING AND  FIRE ALARM SYSTEM USING ARDUINO  IN CEA BUILDING OF BISU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG INCUBATOR USING ARDUINO </t>
+  </si>
+  <si>
+    <t>INTERNET BANDWIDTH LIMITER WITH INVENTORY SYSTEM USING ORANGE PI</t>
+  </si>
+  <si>
+    <t>IMPLEMENTING ARDUINO-BASED OBSTACLE DETECTION FOR SMART VACUUM CLEANER IN QUIMADO RESIDENCE - GOTOZON, LOBOC, BOHOL</t>
+  </si>
+  <si>
+    <t>AUTOMATED PLANT WATERING SYSTEM USING ARDUINO</t>
+  </si>
+  <si>
+    <t>ARDUINO BASED WEARABLE WAKE-UP EYE MASK LED ALARM WITH DIGITAL TEMPERATURE INDICATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPLEMENTING ARDUINO - BASED SOCIAL DISTANCE DESK WATCHER FOR QUEUES IN BOHOL ISLAND STATE UNIVERSITY – MAIN CAMPUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARDUINO-BASED SMART VEHICLE PROTOTYPE </t>
+  </si>
+  <si>
+    <t>PIG TEMPERATURE DETECTION USING ARDUINO IN CANDIJAY, BOHOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCO KNOCK-KNOCK USING ARDUINO AND SOUND SENSOR </t>
+  </si>
+  <si>
+    <t>IMPLEMENTING CAFÉ E-MENU AUTOMATIC BILLING KIOSK WITH TEMPERATURE DETECTOR USING RFID TECHNOLOGY AND ARDUINO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMPLEMENTING RFID CONTROLLED SERVO MOTOR USING ARDUINO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMPLEMENTING AUTOMATIC BUS FARE COLLECTION USING ARDUINO AND RFID TECHNOLOGY IN TAGBILARAN INTEGRATED BUS TERMINAL</t>
+    </r>
+  </si>
+  <si>
+    <t>Jhon Christian Rey Tolop, James Kenneth Almerol, Cherrilyn Sistoso, Aileen Tandoc, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Aivan Guarin, James Jumawan, May An Martinez Tibuc, Juvenar Boyboy, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Dennis Abriol, John Karl Auxteriaco, Glaiza Mae Villorejo, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Napthali Balaba, Carl John Jaojao, Lorddevince Saraspe Cifra, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Marianne Marie Budiongan, Harold Gil Garcia Busalanan, Gecille Marie Campecino, Kia Rochielin Chio,  Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Rhosell Calipusan, Renalyn Hilot, Ma. Crizel Calzado, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Eunerose Orevillo, Regei Reyes, Jake Concha, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Crystel Jem Palamine Perpetua, Rica Mae Gapas, Ivan Christopher Acal, Christopher Peligrino, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Joyce Anne Cagampang, Andrefi Oclarit, Edrian Jake Oclarit, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2020-2021-Management and Information System, 2nd Sem, S.Y. 2020-2021</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Computer Engineering 4 in Elective 1 – Database Management S.Y. 2020-2021, 2nd Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM SIG Proceedings</t>
+  </si>
+  <si>
+    <t>CREATING STORED PROCEDURE FOR BISU EXAM GENERATOR</t>
+  </si>
+  <si>
+    <t>CREATING DELETE SUBJECT IN SQL DATABASE OF BISU EXAM GENERATOR</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 1st Semester, S.Y. 2021-2022-Introduction to Robotics, 1st Sem, S.Y. 2021-2022</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Computer Engineering 3 in CPE 318 – Introduction to Robotics S.Y. 2021-2022, 1st Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM, New York, NY, USA</t>
+  </si>
+  <si>
+    <t>AUTOMATIC FIRE EXTINGUISHING ROBOT SIMULATION USING COPPELIASIM FOR PRIVATE HOUSES</t>
+  </si>
+  <si>
+    <t>SONAR NAVIGATION ASSISTANCE GLOVE FOR VISUALLY IMPAIRED PEOPLE SIMULATION USING COPPELIASIM</t>
+  </si>
+  <si>
+    <t>ROBOTIC SCARECROW SIMULATOR USING COPPELIASIM WITH PIR MOTION SENSOR FOR RICE FIELD PROTECTION IN CADAPDAPAN RICE TERRACES CANDIJAY BOHOL</t>
+  </si>
+  <si>
+    <t>ARDUINO BASED SOLAR-POWERED ROBOTIC SIMULATION LAWN MOWER USING COPPELIASIM</t>
+  </si>
+  <si>
+    <t>POWER CYCLE: CONVERT CYCLING INTO ENERGY SIMULATED USING COPPELIASIM</t>
+  </si>
+  <si>
+    <t>AMPHIBIOUS ROBOT WASTE COLLECTOR SIMULATION USING COPPELIASIM FOR LAND AND WATER EXPLORATION</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 1st Semester, S.Y. 2021-2022-Microprocessor Systems for Mechanical Engineering, 1st Sem, S.Y. 2021-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Project Presentation for Bachelor of Science in Mechanical Engineering 3 in CPE 01 - Microprocessor Systems S.Y. 2021-2022, 1st Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM, New York, NY, USA  </t>
+  </si>
+  <si>
+    <t>ECONOMICAL FOOD DEHYDRATOR USING REFRIGERATOR'S CONDENSER'S WASTE HEAT-ASSISTED BY ARDUINO UNO</t>
+  </si>
+  <si>
+    <t>FRESHWATER QUALITY MONITORING BOAT USING ARDUINO UNO</t>
+  </si>
+  <si>
+    <t>TEMPERATURE-BASED FAN SPEED FOR REAL-TIME ENERGY SAVING USING ARDUINO UNO</t>
+  </si>
+  <si>
+    <t>DIGITAL CLOCK ALARM SYSTEM FOR CARS ASSISTED BY ARDUINO UNO</t>
+  </si>
+  <si>
+    <t>SOLAR-POWERED TRASH BIN FOR AUTOMATED SEGREGATION OF BIODEGRADABLE AND NON-BIODEGRADABLE WASTE IN TAGBILARAN PUBLIC SCHOOLS</t>
+  </si>
+  <si>
+    <t>FULLY AUTOMATED MOUSETRAP DEVELOPED USING ARDUINO UNO FOR TAGBILARAN CITY HOMEOWNERS</t>
+  </si>
+  <si>
+    <t>LPG LEAKAGE ALARM WITH GLOBAL SYSTEM FOR MOBILE COMMUNICATION USING ARDUINO</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 1st Semester, S.Y. 2021-2022-Microprocessors for Industrial Design, 1st Sem, S.Y.  2020-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Project Presentation for  Bachelor of Science in Fine Arts major in Industrial Design 3 in CPE 1 – Microprocessors 1 S.Y. 2021-2022, 1st Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM, New York, NY, USA  </t>
+  </si>
+  <si>
+    <t>SMART WRISTBAND USING A MICROCONTROLLER WHICH PREVENTS THE SPREADING OF CORONAVIRUS DISEASE</t>
+  </si>
+  <si>
+    <t>SMART DOORKNOB SANITIZER USING MICROCONTROLLER WITH TEMPERATURE CHECKER TO PREVENT THE SPREAD OF CORONAVIRUS DISEASE</t>
+  </si>
+  <si>
+    <t>APPLICATION OF ADRUINO AND PASSIVE INFRARED SENSOR (PIR) TO DOOR STOPPER</t>
+  </si>
+  <si>
+    <t>ARDUINO – BASED INTERACTIVE DIGITAL ART CANVAS</t>
+  </si>
+  <si>
+    <t>SMART BADGE SENSOR FOR SOCIAL DISTANCING USING MICROCONTROLLER WITH MINI SMOKE DISINFECTANT</t>
+  </si>
+  <si>
+    <t>ARM PAD THAT AUTOMATICALLY GLOWS ON DETECTING DARKNESS USING ARDUINO</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2021-2022-Microprocessor System for Computer Engineering, 2nd Sem, S.Y. 2021-2022</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Computer Engineering, In Partial Fulfillment of the Requirements of the Course CPE 323 - Microprocessor System, S.Y. 2021-2022, 2nd Semester, BOHOL ISLAND STATE UNIVERSITY Main Campus, Tagbilaran City, Bohol, ACM/APA</t>
+  </si>
+  <si>
+    <t>RFID ATTENDANCE SYSTEM FOR STUDENTS USING ARDUINO WITH GSM</t>
+  </si>
+  <si>
+    <t>AUTOMATIC SCARECROW USING MICROWAVE SENSOR FOR DETECTION AND PROTECTION OF RICE CROPS IN CADAPDAPAN RICE TERRACES CANDIJAY BOHOL</t>
+  </si>
+  <si>
+    <t>IMPLEMENTING ARDUINO BASED AUTOMATIC HAND SANITIZER DISPENSER SYSTEM TO REDUCE THE SPREAD OF COVID-19 DISEASE</t>
+  </si>
+  <si>
+    <t>FLAME SENSOR USING ARDUINO FOR POBLACION DAUIS HOMEOWNERS</t>
+  </si>
+  <si>
+    <t>HOUSE PET INFRARED REMOTE-CONTROLLED FEEDER USING ARDUINO UNO</t>
+  </si>
+  <si>
+    <t>ARDUINO BASED OBSTACLE AVOIDING MOTOR DRIVER FOR WHEELCHAIRS USING L298N AND HC-SR04 SENSOR</t>
+  </si>
+  <si>
+    <t>ARDUINO BASED LIGHTS CONTROLLER SYSTEM USNG ANDROID AND BLUETOOTH FOR CLASSROOMS IN CEA BUILDING OF BISU</t>
+  </si>
+  <si>
+    <t>ARDUINO BASED SMART WHITE CANE FOR VISUALLY IMPAIRED AND BLIND PEOPLE</t>
+  </si>
+  <si>
+    <t>FLOOD WARNING - MONITORING SYSTEM USING ARDUINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARDUINO BASED FIRE ALARM SYSTEM WITH EMERGENCY ALERT NOTIFICATION TO NOTIFY HOMEOWNERS </t>
+  </si>
+  <si>
+    <t>ASSISTIVE PROBING CANE TOOL WITH POKING FEEDBACK FOR VISUALLY IMPAIRED INDIVIDUALS USING ARDUINO</t>
+  </si>
+  <si>
+    <t>SMART GARDENING: SAVE WATER BY INTERFACING SOIL MOISTURE SENSOR WITH ARDUINO</t>
+  </si>
+  <si>
+    <t>ARDUINO BASED AIR QUALITY MONITOR USING MQ135 SENSOR</t>
+  </si>
+  <si>
+    <t>SECURITY ALARM SYSTEM FOR SCHOOL DORMITORIES</t>
+  </si>
+  <si>
+    <t>TEMPERATURE CONTROLLED HOME AUTOMATION USING ARDUINO</t>
+  </si>
+  <si>
+    <t>WATER LEVEL INDICATOR FOR FISHPOND WITH SMS NOTIFICATION USING ARDUINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOMATIC PLUG REMOVER DEVICE USING ARDUINO UNO </t>
+  </si>
+  <si>
+    <t>SMART ASSISTANCE STICK FOR THE BLIND USING ARDUINO</t>
+  </si>
+  <si>
+    <t>SMART STEP: POSITIVE TECHNOLOGY THROUGH  MOTION-ACTIVATED STAIRWAY SAFETY LIGHTS IN BISU MAIN CAMPUS</t>
+  </si>
+  <si>
+    <t>LASER TRIPWIRE SECURITY ALARM SYSTEM USING ARDUINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMART PLANT WATERING MECHANISM USING ARDUINO FOR SWEET HONEY PLANT </t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Electrical Engineering, In Partial Fulfillment of the Requirements of the Course CPE 03 - Microprocessor Systems, S.Y. 2021-2022, 2nd Semester, BOHOL ISLAND STATE UNIVERSITY Main Campus, Tagbilaran City, Bohol, ACM/APA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REMOVAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitao, Bicoy, Baluca, Pasague </t>
+  </si>
+  <si>
+    <t>HEAT DETECTION WITH AUTOMATIC COOLING SYSTEM USING ARDUINO UNO TINKERCAD SIMULATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saligumba, Dela Peña, Madrona, Pitlo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anunciado, Del Rosario, Lopoy, Moreno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atup, Maquilang, Iyoy, Babatuan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villamor, Aton, Ido, Sajulga, Lumagod </t>
+  </si>
+  <si>
+    <t>REMOVAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagas, Abulag, Bonghanoy, Galolo </t>
+  </si>
+  <si>
+    <t>DISSOLVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turtoga, Boloron, Vistal, Patulilic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARDUINO-BASED DC MOTOR SPEED CONTROL TINKERCAD SIMULATION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARDUINO-BASED WASTE SEGREGATOR SYSTEM TINKERCAD SIMULATION </t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2021-2022-Hackathon ICTs for Indigenous Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EskayApp 2.0 </t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2021-2022-Thesis Consultation (BISU-MC)</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2021-2022-Instructor 1 - Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISU-Bilar Contact Tracing System </t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2021-2022-Thesis Consultation (HNU)</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2021-2022-Thesis Consultation (BISU-Balilihan Campus)</t>
+  </si>
+  <si>
+    <t>John Rey Camilotes Mozo, Ivy Mae Janiola, Allan Robert Buzon, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Ma Jezabelle Alago Belecina, Daynesa Fernandez, Erwin Galler, Cristine Tubac, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Kitt Cymonne Gulle Japson, Shiela Mae Logroño Bitasolo, Rena Mae Cabahug, John Mark Bersano, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Agnes Dilao, Girley Suarez, Ray John Man-on, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Christian Paul Supilanas Vertulfo, Caryl Jean Salon Quimado, Andrea Poliran, Ghen Marie Mano, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>John Michael Cadao, Jefrey Jumawid, Nissan Polestico, Ronnie Ibale, Jhon Kenneth Lofranco, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Maria Fliona Ramirez, Hazel Supera, Grant Gregory Lopena, Rotche Mae Laniba, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Armando Jr. Lomod Flores, Max Angelo Dapitilla Perin, Francis Joey Labuan, Elvan Budiongan</t>
+  </si>
+  <si>
+    <t>Dolith Ann Pacatang, Jossa Lim, Ric Ian Ludivese Jamora, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Bernadeth Gulay, Carla Brigide Galarido, Gea Marie Tangcawan Gromontil, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Celmar John Salinas Ortiz, Neneil Mendez, May Aisa, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Clark Dalugdog, Rhyn Alm Inlagada Artiaga, Rian Caesar Sinajon Rebayla, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Queenie Rose Curam Ongcal, Joyce Queenie Garsuta, Mary Jane Mandin, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Marjorie ann Amparo, Jeorie Racines, Frecyla Ranque, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Rhyn Alm Inlagada Artiaga, Marjorie ann Amparo, Mary Jane Mandin, Carla Brigide Galarido, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>May Aisa, Gea Marie Tangcawan Gromontil, Bernadeth Gulay, Frecyla Ranque, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Coin Operated 3-in-1 Printer Kiosk using Flash Drive with Document Transfer via Wi-Fi</t>
+  </si>
+  <si>
+    <t>Part-time Instructor, 2nd Semester, S.Y. 2020-2021-Thesis Consultation</t>
+  </si>
+  <si>
+    <t>Electricity Bill Updater Through Application Programming Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Budiongan et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lofranco et al</t>
+  </si>
+  <si>
+    <t>Vince Pierre Senerpida Bentulan, Claire Ann Lampios, Robert Kin Gohil, George Jr Cahucom Gesite, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Lord Kelvin Buzon Abellana, Jovihanni Caseñas, Cielo Mae Mauro, Charles Rene Respecia, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>ROBOTIC STREET SWEEPER SIMULATION USING COPPELIASIM FOR PUBLIC PLACES</t>
+  </si>
+  <si>
+    <t>Lemuel Jay Boyonas Enad, Jeremiah Rey Bongcac Anub, Daniel Soria, Marl Kenneth Tubal Tan, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Bryan Laureano, Dolph Allyn Capao Añasco, Franz Napallacan, Rod Kristian Rebarbas, Kean Mendez, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Rogimie Danila, Deannah May Paredes Bacol, Alyzza Mae Genita Carias, Jay Anne Luma Jabines, Jelian Kate Jotojot, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>SMART SHOES SIMULATOR WITH EARBUDS - AN AID TO BLIND PEOPLE USING  COPPELIASIM</t>
+  </si>
+  <si>
+    <t>ARD: AQUATIC ROBOT DRONE SIMULATOR USING COPPELIASIM FOR MARINE LIFE SURVEYS</t>
+  </si>
+  <si>
+    <t>Mel Vincent Bulabos Vallecera, Christian Zyrus Gutierrez Omac, Aldrin Oppus, Ninolito Espinosa Peligrino, Kevin Lloyd Picato, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Devie Valerie Quino, Peter Neil Imboy Ilogon, Emmanuel Pinos Saligumba, Jester Montoya, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Joselle Amor Aparicio Quinal, Andrei Raphel Tiongco Amang, Angel Kristie Omosura Cutanda, Rica Noreen Esterado, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Anne Lorainne Caberte Lagunoy, Carl Titus Ranario, Margarita Shiela Timbal, Rogelio Suganob Jr., Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Loren Ugat, Christine Jane Sang-an Alaban, Simon Paolo Ararao, Leah Duterte, Mary Rose Rhofian Israel, Eleanore Tubac, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Angel Bert Balbido, Edwin Ongyot Gamban, Gerald Celocia Villa, Jhon Rozend Callao Doldolea, Lenard Castillon, Patrick Hendry Bergado Reyes, Reynald Zorren Saldom Agresor, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Rose Marie Adanza, Christine Caga-anan, Christian Mae Jumawid, Carille Garcia Mar, Jovy Pasagad, Elaine Aubrey Rania, Ezriel Jon Saludo, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Alve Serohijos, Denzel John Ellorimo, Jeffrey Talo, Jerome Delos Reyes, Kirdy Bontia, Marianne Jade Layar, Mark Loies Siez, Ray Aljun Vallecera, Rhys Kelsey Zabdiel Payot, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Joshua Pasamba, Althea Iris Samontañez Dano, James Lourd Virtudazo, Leonel Dave Penton Socorin, Zodel Francis Cenabre Timbal, Melanie Escobido, Mark Joshua Marapao, Lloyd Christian Cabuga Salomon, King Patrick Flores, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Mia Jane Estrella Maquiling, Mary Jessa Arcaya Abada, Joyce Ann Simbit Bansag, Harold Concha, Melchor Estorioso, Agustus Jamisola, Ely James Jirehl Magadan Manlawe, Mary Joy Decenilla Ramonida, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Darwell Tomo, Estelmar John Mag-uyon, Froilan Jr Inting, Justiar Alex Calamba, John Mark Froilan Dagangon, James Obod, Julienne Xyzyth Niñeza Balagot, Mark Jason Cueno, Rolmar Shem Magdugay, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Jesica Butad Balagot, Chloe Marie Israel Corage, Giovanni Steve Makinano, Lloyd Berendez Domapias, Zandy Mei Pagtalunan, Clarice Jean Loreniana Pernia, Nicole Boncales, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Maria Margaret Pedrablanca, Josie Pilongo Baliling, Fredereck Añasco Tadle, Maria Angelica Pag-ong, Frances Marie Oclarit, Jill Marie Baguio Rulida, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Landrin Ladores, Trislam Sanchez, George Jethro Visarra, John Dale Caderao Cardel, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Rasseil Aulestia, Ma. Odelia Sandigan, Jobelle Balili, Jan Razel Dela Cruz, Christian Seville, Christian John Rafols, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Abigael Villamor, Dane Marie Bacol, Antonette Tasic, Jenelyn Bacasnot, Jessica Bayocot, Janrio Quiñal, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Anne Jade Amparado, Stephanie Jane Doydoy, Leslie Marie Hangad, Jenrose Tribunalo, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Automated Plant Watering System Using Arduino</t>
+  </si>
+  <si>
+    <t>Lord Kelvin Buzon Abellana, Bryan Amper, Deannah May Paredes Bacol, Alyzza Mae Genita Carias, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Dolph Allyn Capao Añasco, Bryan Laureano, John derick Ylaya, Kenneth Lorvic Valeroso, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Jeremiah Rey Bongcac Anub, Felipe Jr. Banol, Joel Tadle, Jaquelyn Tangcawan, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Klien Arcales, Cathlene Barril, Vince Pierre Senerpida Bentulan, Marl Kenneth Tubal Tan, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Karle Mathew Genita Bergado, Jovihanni Caseñas, Rogimie Danila, Jazmin Joy Monteroyo Fullante, Clifford John Cañastra Tampos, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Lemuel Jay Boyonas Enad, Kerbin Dimalanta, Jay Anne Luma Jabines, Ellah Mae Ras Labonog, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>George Jr Cahucom Gesite, Claire Ann Lampios, Robert Kin Gohil, Jelian Kate Jotojot, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessie Ryle Ancog Laguitao, Franz Napallacan, Ruel Riego Lofranco, Kean Mendez, Max Angelo Dapitilla Perin </t>
+  </si>
+  <si>
+    <t>Mary Ranive Lloren Cadeliña, Lloyd Lagura, Charles Rene Respecia, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>SOLAR TRACKER AND CHARGER FOR SOLAR MEASUREMENT, LIGHT INTENSITY, DETECTION, AND CHARGING FEATURE USING ARDUINO</t>
+  </si>
+  <si>
+    <t>Cielo Mae Mauro, Fritgil Mae Luayon Molina, Rod Kristian Rebarbas, Jade Harris Estillore Roperos, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Sheilame Boganotan, Daniel Rubin, Daniel Soria, Mae Abegail Tagadiad, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Stephen Abueva Rica Noreen Esterado Anne Lorainne Caberte Lagunoy Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Jeneveve Amolato Lyza Mae Calotes King Pinar Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Peter Neil Imboy Ilogon Mylyn Daplin Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Lutchel Auditor, Angel Kristie Omosura Cutanda, Emmanuel Pinos Saligumba, Jojie Yabo, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Mark Horace Bucia Balais, Mel Vincent Bulabos Vallecera, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Teresa Mae Coca, Danica Jeanne Magdadaro Gucor, Christian Zyrus Gutierrez Omac, Ninolito Espinosa Peligrino, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Jack Danielle Ladaran Granada, Melanie Orot, Rogelio Suganob Jr., Jairo Ponce, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>REAL-TIME CLASSROOM VACANCY MONITORING SYSTEM</t>
+  </si>
+  <si>
+    <t>Sheila Mae Dano, Warren Labor Ingente, Alexis Lagamao, Shin Mahilum, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Zendy Shervyl Fullido, Ivy Crescel Malig-on, Prince Lonito Balaga Opelinia, Jester Montoya, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Joselle Amor Aparicio Quinal, John Mackenly Boniel Rollin, Ramel Tabuzo, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Joanah May Bulabos, Mary Joyce Palingcod, Kevin Lloyd Picato, Carl Titus Ranario, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Aldrin Oppus, Joseph Caesar Ofaga Relampagos, Jermedita Sandigan, Margarita Shiela Timbal, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Chabelita Caresosa, Romuel Hingpit, Valerie Jade Tobias Piaoan, Junel Pon, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Christian Gumapac, Anthony Tagudin, Jay Ruloma, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t>Remegio Jr. B. Dinorog, Mario Lloyd Gutierrez, Isabelo Somontan, Mark Villatima Uguis, Max Angelo Dapitilla Perin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dahunog, Ayuban, Orcullo, Tante, Bagaipo </t>
+  </si>
+  <si>
+    <t>Rollorata et al</t>
+  </si>
+  <si>
+    <t>Tagudin et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNUiMap HNU Campus Interactive Map for Guidance and Optimized Routing for School Transactional Processes </t>
+  </si>
+  <si>
+    <t>Water Profiling in Inambacan Cave and Spring for Possible Power Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Balagot et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Energy Monitoring System with Carbon App Tracker </t>
+  </si>
+  <si>
+    <t>Alising et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sto Nino Parish Church of Cortes Information System </t>
+  </si>
+  <si>
+    <t>Quimado et al</t>
+  </si>
+  <si>
+    <t>Smart Vacuum Cleaner with UV Disinfection and Mosquito Trapper</t>
+  </si>
+  <si>
+    <t>Supera et al</t>
+  </si>
+  <si>
+    <t>Social Distance Desk Watcher for Queue</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Computer Engineering 4 in CPE 412 – Structure of Programming Languages S.Y. 2020-2021, 1st Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM SIG Proceedings</t>
+  </si>
+  <si>
+    <t>Research Project Presentation for Bachelor of Science in Mechanical Engineering 3 in CPE 01 – Microprocessors 1 S.Y. 2020-2021, 1st Semester, Bohol Island State University-Main Campus, Tagbilaran City, Republic of the Philippines. ACM SIG Proceedings</t>
+  </si>
+  <si>
+    <t>BISU-Bilar Contact Tracing System Local – Dev Code</t>
+  </si>
+  <si>
+    <t>Instructor 1-Thesis Expert (BISU-Bilar Campus) 1st Semester, S.Y. 2022-2023</t>
+  </si>
+  <si>
+    <t>Instructor 1-Project Consultation (BISU-Main Campus) 1st Semester, S.Y. 2022-2023</t>
+  </si>
+  <si>
+    <t>Instructor 1-Bohol ICaRED Center - Phase II (BISU-Bilar Campus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohol Cacao Industry Information System </t>
+  </si>
+  <si>
+    <t>Instructor 1-Thesis Consultation (BISU-Main Campus)</t>
+  </si>
+  <si>
+    <t>Instructor 1-Faculty Development (BISU-Bilar Campus/MISU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face Recognition Attendance Monitoring using Local Binary Patterns Histograms Algorithm </t>
+  </si>
+  <si>
+    <t>BISU-Bilar Campus Contact Tracing System Update Data Module (MISU-Bilar)</t>
+  </si>
+  <si>
+    <t>BISU-Bilar Campus Contact Tracing System Desktop Transferee/Returnee Module (MISU-Bilar)</t>
+  </si>
+  <si>
+    <t>eBaybayMo: An E-Learning Tool for Transliterating Baybayin Characters to Latin Letters using Machine Learning</t>
+  </si>
+  <si>
+    <t>StenogrApp: Recognition of Basic Stenography using Machine Learning</t>
+  </si>
+  <si>
+    <t>Baybayin Character Recognition and Transliteration using kNN Algorithm: Preliminary Findings --&gt; Development of Baybayin Character Recognition and Transliteration API (Application Programming Interface) using kNN Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISU-Bilar Campus Human Resource Information System </t>
+  </si>
+  <si>
+    <t>BISU-Bilar Campus Contact Tracing System - CTAS Expo 2023 Attendance Module</t>
+  </si>
+  <si>
+    <t>EskayApp Premium Version</t>
+  </si>
+  <si>
+    <t>BISU-Bilar Campus AACCUP Report Generator</t>
+  </si>
+  <si>
+    <t>Tuba et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loboc Tourism Queue Management System with Boat Recommended Selector Using Supervised Machine Learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis Archiving System Using NLP with Differentiate Similar Studies </t>
+  </si>
+  <si>
+    <t>Besinga et al</t>
+  </si>
+  <si>
+    <t>Hingpit et al</t>
+  </si>
+  <si>
+    <t>Line Follower and Avoidance Obstacle CarLine Follower and Avoidance Obstacle Car</t>
+  </si>
+  <si>
+    <t>Soria et al</t>
+  </si>
+  <si>
+    <t>Integrated Identification System for Homes with SMS Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT based Solar Street Lighting System </t>
+  </si>
+  <si>
+    <t>Sambas et al</t>
+  </si>
+  <si>
+    <t>Instructor 1-Faculty Instructions (Intermediate Programming/Discrete Structures 2/Web Development and Enterprises) 2nd Semester, S.Y. 2022-2023</t>
+  </si>
+  <si>
+    <t>Authentication Module of Users in Financial Checkup Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication Module of Users in Financial Checkup Information System </t>
+  </si>
+  <si>
+    <t>Dogoy, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication Module of Users in Financial Checkup Information System </t>
+  </si>
+  <si>
+    <t>Lomod, L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication Module of Users in Financial Checkup Information System </t>
+  </si>
+  <si>
+    <t>Cagande, Y</t>
+  </si>
+  <si>
+    <t>Development of Console-based Encryption of Alphabet to Atbash Cipher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translating the Alphabet to its Corresponding Atbash Code in Development of Console-based Encryption of Alphabet to Atbash Cipher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decryption of an Atbash Code in Development of Console-based Encryption of Alphabet to Atbash Cipher </t>
+  </si>
+  <si>
+    <t>Polot, A</t>
+  </si>
+  <si>
+    <t>Jaya, D</t>
+  </si>
+  <si>
+    <t>Creating a Console-based Book Tracking System for BISU-Bilar Campus Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing the Book Class to Store Information About Books in Creating a Console-Based Book Tracking System for BISU-Bilar Campus Library </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing the Library Class to Manage the Collection of Books and Handle Borrowing Transactions in Creating a Console-Based Book Tracking System for BISU-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Menu in Creating a Console-Based Book Tracking System for BISU-Bilar Campus </t>
+  </si>
+  <si>
+    <t>Tado, G</t>
+  </si>
+  <si>
+    <t>Solis, R</t>
+  </si>
+  <si>
+    <t>Tasic, KE</t>
+  </si>
+  <si>
+    <t>Development of Console-Based Password Generator for QR Contact Tracing System at Bohol Island State University-Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a Customizable Password Generator in Development of Console-Based Password Generator for QR Contact Tracing System at Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorable Password Generator using Word List in Development of Console-Based Password Generator for QR Contact Tracing System at Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putting Limitation on the Repetition of Character or Digit in Development of Console-Based Password Generator for QR Contact Tracing System at Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t>Cutora, EP</t>
+  </si>
+  <si>
+    <t>Escolano, JF</t>
+  </si>
+  <si>
+    <t>Gonzaga, K</t>
+  </si>
+  <si>
+    <t>Student Management Module in Development of Console-Based School Management System for Bohol Island State University-Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Data on Student Management Module in Development of Console-Based School Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showing All Data on Student Management Module in Development of Console-Based School Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching Data on Student Management Module in Development of Console-Based School Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t>Salarda, P</t>
+  </si>
+  <si>
+    <t>Borres, MJ</t>
+  </si>
+  <si>
+    <t>Lasafin, J</t>
+  </si>
+  <si>
+    <t>Development of a Console-Based Grades Converter Module for Bohol Island State University - Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Average Calculator in the Development of a Console-Based Grades Converter Module for Bohol Island State University - Bilar Campus </t>
+  </si>
+  <si>
+    <t>Ramirez, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Distribution Analysis in Development of a Console-Based Grades Converter Module for Bohol Island State University - Bilar Campus </t>
+  </si>
+  <si>
+    <t>Bongato, J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Scaling System in Development of a Console-Based Grades Converter Module for Bohol Island State University - Bilar Campus </t>
+  </si>
+  <si>
+    <t>Maguad, MV</t>
+  </si>
+  <si>
+    <t>Development of a Console-Based System for Monitoring the Location of BISU-Bilar Students in Boarding Houses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating Location Data in the Development of a Console-Based System for Monitoring the Location of BISU-Bilar Students in Boarding Houses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showing Location Data in the Development of a Console-Based System for Monitoring the Location of BISU-Bilar Students in Boarding Houses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Location Data in the Development of a Console-Based System for Monitoring the Location of BISU-Bilar Students in Boarding Houses </t>
+  </si>
+  <si>
+    <t>Andrade, JK</t>
+  </si>
+  <si>
+    <t>Hinlayagan, G</t>
+  </si>
+  <si>
+    <t>Turan, JN</t>
+  </si>
+  <si>
+    <t>Implementing Console-Based Bar Code Security for Student Entrance at Bohol Island State University-Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES Encryption with Different Key Sizes in Implementing Console-Based Bar Code Security for Student Entrance at Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSA Decryption Algorithm using Private Key in Implementing Console-Based Bar Code Security for Student Entrance at Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES Decryption Algorithms in Implementing Console-Based Bar Code Security for Student Entrance at Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t>Lagare, RJ</t>
+  </si>
+  <si>
+    <t>Ledesma, HK</t>
+  </si>
+  <si>
+    <t>Gaudicos, J</t>
+  </si>
+  <si>
+    <t>Lagare, RJ
+Ledesma, HK
+Gaudicos, J</t>
+  </si>
+  <si>
+    <t>Dogoy, R
+Lomod, L
+Cagande, Y</t>
+  </si>
+  <si>
+    <t>Polot, A
+Jaya, D</t>
+  </si>
+  <si>
+    <t>Tado, G
+Solis, R
+Tasic, KE</t>
+  </si>
+  <si>
+    <t>Cutora, EP
+Gonzaga, K
+Escolano, JF</t>
+  </si>
+  <si>
+    <t>Salarda, P
+Borres, MJ
+Lasafin, J</t>
+  </si>
+  <si>
+    <t>Ramirez, R
+Bongato, J
+Maguad, MV</t>
+  </si>
+  <si>
+    <t>Andrade, JK
+Hinlayagan, G
+Turan, JN</t>
+  </si>
+  <si>
+    <t>Development of Console-Based Barangay Resident Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleting Data on Resident in Development of Console-Based Barangay Resident Management System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Data on Resident in Development of Console-Based Barangay Resident Management System </t>
+  </si>
+  <si>
+    <t>Searching Data on Resident in Development of Console-Based Barangay Resident Management System</t>
+  </si>
+  <si>
+    <t>Tadle, J</t>
+  </si>
+  <si>
+    <t>Balatero, B</t>
+  </si>
+  <si>
+    <t>Tadle, J
+Balatero, B</t>
+  </si>
+  <si>
+    <t>BSCS1B-G4-Development of Console-based School Event Attendance Monitoring System in Bohol Island State University Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing The School Activity Module in the Development of Console-based School Event Attendance Monitoring System in Bohol Island State University Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recording of Student Module in the Development of Console-based School Event Attendance Monitoring System in Bohol Island State University Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Student Module in the Development of Console-based School Event Attendance Monitoring System in Bohol Island State University Bilar Campus </t>
+  </si>
+  <si>
+    <t>Catigbe, MB</t>
+  </si>
+  <si>
+    <t>Pasilbas, R</t>
+  </si>
+  <si>
+    <t>Dalion, MD</t>
+  </si>
+  <si>
+    <t>Catigbe, MB
+Dalion, MD
+Pasilbas, R</t>
+  </si>
+  <si>
+    <t>Development of a Console-Based Budgeting Allowance System for Bohol Island State University - Bilar Campus Students</t>
+  </si>
+  <si>
+    <t>Authentication of Users in BISU-Bilar Campus QR Code Contact Tracing System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication of Users in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication of Users in BISU-Bilar Campus QR Code Contact Tracing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication of Users in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t>Perocho, R</t>
+  </si>
+  <si>
+    <t>Orapa, C</t>
+  </si>
+  <si>
+    <t>Balaba, J</t>
+  </si>
+  <si>
+    <t>Perocho, R
+Orapa, C
+Balaba, J</t>
+  </si>
+  <si>
+    <t>Development of Console-Based Dean's List Management System for Bohol Island State University-Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleting Data in the Development of Console-Based Dean's List Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching Data in the Development of Console-Based Dean's List Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t>Besas, RJ</t>
+  </si>
+  <si>
+    <t>Boco, J</t>
+  </si>
+  <si>
+    <t>Besas, RJ
+Boco, J</t>
+  </si>
+  <si>
+    <t>Developing a Console-based Patient Management Module in Clinic Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students’ Medical Records in Developing a Console-based Patient Management Module in Clinic Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Developing a Console-based Patient Management Module in Clinic Information System </t>
+  </si>
+  <si>
+    <t>in Developing a Console-based Patient Management Module in Clinic Information System</t>
+  </si>
+  <si>
+    <t>DelaCruz, E</t>
+  </si>
+  <si>
+    <t>Linte</t>
+  </si>
+  <si>
+    <t>DelaCruz, E
+Linte</t>
+  </si>
+  <si>
+    <t>Development of a Console-Based Student Behavior Management System for Improved Classroom Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Student Behavior in the Development of a Console-Based Student Behavior Management System for Improved Classroom Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating Student Behavior in the Development of a Console-Based Student Behavior Management System for Improved Classroom Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating Behavior in the Development of a Console-Based Student Behavior Management System for Improved Classroom Management </t>
+  </si>
+  <si>
+    <t>Uyamot, R</t>
+  </si>
+  <si>
+    <t>Gera, A</t>
+  </si>
+  <si>
+    <t>Banga, A</t>
+  </si>
+  <si>
+    <t>Uyamot, R
+Gera, A
+Banga, A</t>
+  </si>
+  <si>
+    <t>Development of Console-Based Class Voting System for Students of Bohol Island State University - Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing the Students Running as a Class Mayor in Development of Console-Based Class Voting System for Students of Bohol Island State University - Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Profile on Students Candidates Running as a Class Mayor in Development of Console-Based Class Voting System for Students of Bohol Island State University - Bilar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizing the Results of the Election of Class Mayor in Development of Console-Based Class Voting System for Students of Bohol Island State University - Bilar Campus </t>
+  </si>
+  <si>
+    <t>Rubilla, DH</t>
+  </si>
+  <si>
+    <t>Pailanan, JB</t>
+  </si>
+  <si>
+    <t>Cuas, RM</t>
+  </si>
+  <si>
+    <t>Rubilla, DH
+Pailanan, JB
+Cuas, RM</t>
+  </si>
+  <si>
+    <t>Chat Module in the Development of Console-based School Management System for Bohol Island State University-Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sending Messages on Student Management in Chat Module in the Development of Console-based School Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleting Messages Functionality from the Chat Module in the Development of Console-based School Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message Forwarding Functionality in Chat Module in the Development of Console-based School Management System for Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t>Cabusao, AL</t>
+  </si>
+  <si>
+    <t>Calipusan, FD</t>
+  </si>
+  <si>
+    <t>Bitancor, E</t>
+  </si>
+  <si>
+    <t>Cabusao, AL
+Calipusan, FD
+Bitancor, E</t>
+  </si>
+  <si>
+    <t>Development of a Console-Based Converter from Roman Numeral to Decimal Number System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a Console-Based Converter froms Roman Numeral to Decimal Number System from 1-3999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a Console-Based Converter froms Roman Numeral to Decimal Number System from 1-999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a Console-Based Converter froms Roman Numeral to Decimal Number System from 1-399 </t>
+  </si>
+  <si>
+    <t>Sagliba, B</t>
+  </si>
+  <si>
+    <t>Lapa, K</t>
+  </si>
+  <si>
+    <t>Pogoy, AM</t>
+  </si>
+  <si>
+    <t>Sagliba, B
+Lapa, K
+Pogoy, AM</t>
+  </si>
+  <si>
+    <t>Development of a Console-Based Food Ordering System for the Canteen of Bohol Island State University-Bilar Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Main Menu in Development of a Console-Based Food Ordering System for the Canteen of Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating an Order in Development of a Console-Based Food Ordering System for the Canteen of Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Billing in Development of a Console-Based Food Ordering System for the Canteen of Bohol Island State University-Bilar Campus </t>
+  </si>
+  <si>
+    <t>Adlaon, C</t>
+  </si>
+  <si>
+    <t>Bactong, S</t>
+  </si>
+  <si>
+    <t>Jale, JA</t>
+  </si>
+  <si>
+    <t>Adlaon, C
+Bactong, S
+Jale, JA</t>
+  </si>
+  <si>
+    <t>Development of a Console-based Application for Financial Management of College Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a Main Menu in the Development of a Console-based Application for Financial Management of College Students </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Income and Expense Data Input in the Development of a Console-based Application for Financial Management of College Students </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculating the Net Income and Generating Financial Reports in the Development of a Console-based Application for Financial Management of College Students </t>
+  </si>
+  <si>
+    <t>Mayores, JR</t>
+  </si>
+  <si>
+    <t>Tiongson, G</t>
+  </si>
+  <si>
+    <t>Palma, DN</t>
+  </si>
+  <si>
+    <t>Mayores, JR
+Tiongson, G
+Palma, DN</t>
+  </si>
+  <si>
+    <t>Authentication of Employees in BISU-Bilar Campus Human Resource Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication of Employees in BISU-Bilar Campus Human Resource Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication of Employees in BISU-Bilar Campus Human Resource Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication of Employees in BISU-Bilar Campus Human Resource Information System </t>
+  </si>
+  <si>
+    <t>Malabute, J</t>
+  </si>
+  <si>
+    <t>Ga-as, M</t>
+  </si>
+  <si>
+    <t>Saturos, H</t>
+  </si>
+  <si>
+    <t>Malabute, J
+Ga-as, M
+Saturos, H</t>
+  </si>
+  <si>
+    <t>Host Training Establishment Module in BISU-Bilar Campus Department of Computer Science OJT System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Management in Host Training Establishment Module in BISU-Bilar Campus Department of Computer Science OJT System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Student to Employer in Host Training Establishment Module in BISU-Bilar Campus Department of Computer Science OJT System </t>
+  </si>
+  <si>
+    <t>Buñao, I</t>
+  </si>
+  <si>
+    <t>Tanio, L</t>
+  </si>
+  <si>
+    <t>Buñao, I
+Tanio, L</t>
+  </si>
+  <si>
+    <t>SMS Notification Using GSM Module, Arduino, and Push Button Switch for Flood Monitoring System</t>
+  </si>
+  <si>
+    <t>Development of Console-Based Hotel Management and Reservation System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Management in the Development of Console-Based Hotel Management and Reservation System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room Management in the Development of Console-Based Hotel Management and Reservation System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting Management in the Development of Console-Based Hotel Management and Reservation System </t>
+  </si>
+  <si>
+    <t>Ancog, R</t>
+  </si>
+  <si>
+    <t>Manatad, MB</t>
+  </si>
+  <si>
+    <t>Tumale, A</t>
+  </si>
+  <si>
+    <t>Ancog, R
+Manatad, MB
+Tumale, A</t>
+  </si>
+  <si>
+    <t>Development of Consoled Based Program (Pageant) Voting System for Students in Bohol Island State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzing and Reporting of Operational Test Results in the Development of Consoled Based Program(Pageant) Voting System for Students in Bohol Island State University </t>
+  </si>
+  <si>
+    <t>Doria, J</t>
+  </si>
+  <si>
+    <t>Development of Console-based Fahrenheit-Celsius-Rankine Converter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Fahrenheit-Celcius in the Development of Console-based Fahrenheit-Celsius-Rankine Converter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Celcius-Rankine in the Development of Console-based Fahrenheit-Celsius-Rankine Converter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Rankine-Farenheit in the Development of Console-based Fahrenheit-Celsius-Rankine Converter </t>
+  </si>
+  <si>
+    <t>Doria, M</t>
+  </si>
+  <si>
+    <t>Simbajon, C</t>
+  </si>
+  <si>
+    <t>Gudmalin, J</t>
+  </si>
+  <si>
+    <t>Doria, M
+Simbajon, C
+Gudmalin, J</t>
+  </si>
+  <si>
+    <t>Development of Console-based Time Scheduling of College Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Main-Menu of Development of Console-based Time Scheduling of College Student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Input Validation in the Development of Console-based Time Scheduling of College Student </t>
+  </si>
+  <si>
+    <t>Camposo, RS</t>
+  </si>
+  <si>
+    <t>Balili, R</t>
+  </si>
+  <si>
+    <t>Camposo, RS
+Balili, R</t>
+  </si>
+  <si>
+    <t>Developing a Console-Program for Converting Number Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Decimal to Binary in Developing a Console-Program for Converting Number Systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Decimal to Hexadecimal in Developing a Console-Program for Converting Number Systems </t>
+  </si>
+  <si>
+    <t>Pangan, M</t>
+  </si>
+  <si>
+    <t>Pangan, I</t>
+  </si>
+  <si>
+    <t>Pangan, M
+Pangan, I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library Attendance in Viewing Logs Module in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance Attendance in Viewing Logs Module in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTAS Expo Attendance in Viewing Logs Module in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viewing Logs Module in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t>Batausa, A</t>
+  </si>
+  <si>
+    <t>Ramos, R</t>
+  </si>
+  <si>
+    <t>Jamero, C</t>
+  </si>
+  <si>
+    <t>Batausa, A
+Ramos, R
+Jamero, C</t>
+  </si>
+  <si>
+    <t>Using Combinatorics to Optimize Seating Arrangements in Small Group Meetings / Grouping Strategies by Number Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Rule in Using Combinatorics to Optimize Seating Arrangements in Small Group Meetings/Using Divisibility Theory in Grouping Strategies by Number Theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinations Rule in Using Combinatorics to Optimize Seating Arrangements in Small Group Meetings/Using LCD Theory in Grouping Strategies by Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum Rule in Using Combinatorics to Optimize Seating Arrangements in Small Group Meetings/Using GCD Theory in Grouping Strategies by Number Theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation Rule in Using Combinatorics to Optimize Seating Arrangements in Small Group Meetings/Using Prime Numbers Theory in Grouping Strategies by Number Theory </t>
+  </si>
+  <si>
+    <t>Murica, V</t>
+  </si>
+  <si>
+    <t>Mar, J</t>
+  </si>
+  <si>
+    <t>Alcala, CC</t>
+  </si>
+  <si>
+    <t>Sotto, JA</t>
+  </si>
+  <si>
+    <t>Murica, V
+Mar, J
+Alcala, CC
+Sotto, JA</t>
+  </si>
+  <si>
+    <t>Counting the Number of Valid Passwords using Combinatorics/Optimal Task Allocation by Number Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Counting the Number of Valid Passwords using Combinatorics/Using GCD in Optimal Task Allocation by Number Theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Combinatorics in Counting the Number of Valid Passwords using Combinatorics/Using Divisibility Theorem in Optimal Task Allocation by Number Theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Counting the Number of Valid Passwords using Combinatorics/Using Prime Numbers in Optimal Task Allocation by Number Theory </t>
+  </si>
+  <si>
+    <t>Fernandez, HJ</t>
+  </si>
+  <si>
+    <t>Galia, CJ</t>
+  </si>
+  <si>
+    <t>Camposo, C</t>
+  </si>
+  <si>
+    <t>Fernandez, HJ
+Galia, CJ
+Camposo, C</t>
+  </si>
+  <si>
+    <t>Optimizing School Scheduling- A Combinatorial Analysis of Class and Teacher Combinations for Resource Maximization, Conflict Reduction, and Student Accommodation/Utilizing Number Theory to Reduce Conflicts and Maximize Efficiency for Students and Teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Optimizing School Scheduling: A Combinatorial Analysis of Class and Teacher Combinations for Resource Maximization, Conflict Reduction, and Student Accommodation/Using Divisibility Theorem in Utilizing Number Theory to Reduce Conflicts and Maximize Efficiency for Students and Teachers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Optimizing School Scheduling: A Combinatorial Analysis of Class and Teacher Combinations for Resource Maximization, Conflict Reduction, and Student Accommodation/Using Prime Numbers in Utilizing Number Theory to Reduce Conflicts and Maximize Efficiency for Students and Teachers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Combinations Rule in Optimizing School Scheduling: A Combinatorial Analysis of Class and Teacher Combinations for Resource Maximization, Conflict Reduction, and Student Accommodation/Using GCD in Utilizing Number Theory to Reduce Conflicts and Maximize Efficiency for Students and Teachers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Permutations Rule in Optimizing School Scheduling: A Combinatorial Analysis of Class and Teacher Combinations for Resource Maximization, Conflict Reduction, and Student Accommodation/Using LCD in Utilizing Number Theory to Reduce Conflicts and Maximize Efficiency for Students and Teachers </t>
+  </si>
+  <si>
+    <t>Gumapac, JH</t>
+  </si>
+  <si>
+    <t>Compendio, MJ</t>
+  </si>
+  <si>
+    <t>Mahinay, JA</t>
+  </si>
+  <si>
+    <t>Doria, M
+Gumapac, JH
+Compendio, MJ
+Mahinay, J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Tournament Bracket Design using Combinatorics/Using Number Theory for Fair Rent Splitting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Optimal Tournament Bracket Design using Combinatorics/Using Number Theory for Fair Rent Splitting by GCF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Optimal Tournament Bracket Design using Combinatorics/Using Number Theory for Fair Rent Splitting by Prime Numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Permuation in Optimal Tournament Bracket Design using Combinatorics/Using Number Theory for Fair Rent Splitting by Divisibility </t>
+  </si>
+  <si>
+    <t>Hinghing, C</t>
+  </si>
+  <si>
+    <t>Cagalitan, N</t>
+  </si>
+  <si>
+    <t>Baslot, EJ</t>
+  </si>
+  <si>
+    <t>Hinghing, C
+Cagalitan, N
+Baslot, EJ</t>
+  </si>
+  <si>
+    <t>Applying Combinatorics for Scheduling Meeting in School/Applying Number Theory for Scheduling Meeting in School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Combinations Rule in Applying Combinatorics for Scheduling Meeting in School/Using Divisibility Theorem in Applying Number Theory for Scheduling Meeting in School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Applying Combinatorics for Scheduling Meeting in School/Using LCD in Applying Number Theory for Scheduling Meeting in School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Permutation in Applying Combinatorics for Scheduling Meeting in School/Using GCD in Applying Number Theory for Scheduling Meeting in School </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Applying Combinatorics for Scheduling Meeting in School/Using Prime Numbers in Applying Number Theory for Scheduling Meeting in School </t>
+  </si>
+  <si>
+    <t>Cabusao, BC</t>
+  </si>
+  <si>
+    <t>Compendio, S</t>
+  </si>
+  <si>
+    <t>Hernane, F</t>
+  </si>
+  <si>
+    <t>Lingatong, J</t>
+  </si>
+  <si>
+    <t>Cabusao, BC
+Compendio, S
+Hernane, F
+Lingatong, J</t>
+  </si>
+  <si>
+    <t>Creative Product Arrangements in Grocery Store using Combinatorics/Utilizing Number Theory for Equitable Distribution of Educational Assistance among Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Creative Product Arrangements in Grocery Store using combinatorics/Utilizing Number Theory for Equitable Distribution of Educational Assistance among Students by LCD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Creative Product Arrangements in Grocery Store using combinatorics/Utilizing Number Theory for Equitable Distribution of Educational Assistance among Students by Divisibility </t>
+  </si>
+  <si>
+    <t>Using Combinations in Creative Product Arrangements in Grocery Store using Combinatorics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Permutations in Creative Product Arrangements in Grocery Store using Combinatorics/Utilizing Number Theory for Equitable Distribution of Educational Assistance among Students by GCF </t>
+  </si>
+  <si>
+    <t>Gamutin, J</t>
+  </si>
+  <si>
+    <t>Cagumbay, RB</t>
+  </si>
+  <si>
+    <t>Limbaga, RM</t>
+  </si>
+  <si>
+    <t>Gamutin, J
+Cagumbay, RB
+Limbaga, RM</t>
+  </si>
+  <si>
+    <t>Authentication of Users in BISU-Bilar Campus Instruction/Teaching Effectiveness System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication of Users in BISU-Bilar Campus Instruction/Teaching Effectiveness System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication of Users in BISU-Bilar Campus Instruction/Teaching Effectiveness System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication of Users in BISU-Bilar Campus Instruction/Teaching Effectiveness System </t>
+  </si>
+  <si>
+    <t>Caderao, S</t>
+  </si>
+  <si>
+    <t>Rubas, MJ</t>
+  </si>
+  <si>
+    <t>Vistal, GE</t>
+  </si>
+  <si>
+    <t>Caderao, S
+Rubas, MJ
+Vistal, GE</t>
+  </si>
+  <si>
+    <t>Authentication of Users in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication of Users in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication of Users in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication of Users in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System </t>
+  </si>
+  <si>
+    <t>Tumale, M</t>
+  </si>
+  <si>
+    <t>Macalos, H</t>
+  </si>
+  <si>
+    <t>Ale, MJ</t>
+  </si>
+  <si>
+    <t>Tumale, M
+Macalos, H
+Ale, MJ</t>
+  </si>
+  <si>
+    <t>Exploring Combinatorics Through Classroom Seating Arrangements/Exploring Classroom Arrangements by Number Theory</t>
+  </si>
+  <si>
+    <t>Using Sum rule in Exploring Combinatorics Through Classroom Seating Arrangements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product rule in Exploring Combinatorics Through Classroom Seating Arrangements/ Using LCD in Exploring Classroom Arrangements by Number Theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Combinations rule in Exploring Combinatorics Through Classroom Seating Arrangements/Using Divisibility in Exploring Classroom Arrangements by Number Theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Permutations rule in Exploring Combinatorics Through Classroom Seating Arrangements/Using GCD in Exploring Classroom Arrangements by Number Theory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule rule in Exploring Combinatorics Through Classroom Seating Arrangements/Using Prime Numbers in Exploring Classroom Arrangements by Number Theory </t>
+  </si>
+  <si>
+    <t>Contioso, TM</t>
+  </si>
+  <si>
+    <t>Campion, SM</t>
+  </si>
+  <si>
+    <t>Cahiles, B</t>
+  </si>
+  <si>
+    <t>Bucar, JI</t>
+  </si>
+  <si>
+    <t>Contioso, TM
+Campion, SM
+Cahiles, B
+Bucar, JI</t>
+  </si>
+  <si>
+    <t>Optimizing Work and Study Schedules Using Combinatorics/Optimizing Study Time using Number Theory to create effective schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Optimizing Work and Study Schedules Using Combinatorics/Using Divisibility Theorem in Optimizing Study Time using Number Theory to Create Effective Schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Optimizing Work and Study Schedules Using Combinatorics/Using GCD in Optimizing Study Time using Number Theory to Create Effective Schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Permutaton Rule in Optimizing Work and Study Schedules Using Combinatorics/Using LCD in Optimizing Study Time using Number Theory to Create Effective Schedule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Combination Rule in Optimizing Work and Study Schedules Using Combinatorics/Using Prime Numbers in Optimizing Study Time using Number Theory to Create Effective </t>
+  </si>
+  <si>
+    <t>Manabat, T</t>
+  </si>
+  <si>
+    <t>Sagaray, E</t>
+  </si>
+  <si>
+    <t>Dupit, MR</t>
+  </si>
+  <si>
+    <t>Malig-on, F</t>
+  </si>
+  <si>
+    <t>Manabat, T
+Sagaray, E
+Dupit, MR
+Malig-on, F</t>
+  </si>
+  <si>
+    <t>Optimal Resource Allocation for Disaster Response Planning Using Combinatorics/Exploring Number Theory in Optimal Resource Allocation for Disaster Response Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Optimal Resource Allocation for Disaster Response Planning Using Combinatorics/Using GCD in Exploring Number Theory in Optimal Resource Allocation for Disaster Response </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Combinations Rule in Optimal Resource Allocation for Disaster Response Planning Using Combinatorics/Using Prime Numbers in Exploring Number Theory in Optimal Resource Allocation for Disaster Response Planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Optimal Resource Allocation for Disaster Response Planning Using Combinatorics/Using LCD in Exploring Number Theory in Optimal Resource Allocation for Disaster Response Planning </t>
+  </si>
+  <si>
+    <t>Felisilda, CJ</t>
+  </si>
+  <si>
+    <t>Hamoay, JD</t>
+  </si>
+  <si>
+    <t>Dampog, K</t>
+  </si>
+  <si>
+    <t>Felisilda, CJ
+Hamoay, JD
+Dampog, K</t>
+  </si>
+  <si>
+    <t>Academic Module in BISU-Bilar Campus Instruction/Teaching Effectiveness System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor Management in Academic Module in BISU-Bilar Campus Instruction/Teaching Effectiveness System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Management in Academic Module in BISU-Bilar Campus Instruction/Teaching Effectiveness System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor Assignment Management in Academic Module in BISU-Bilar Campus Instruction/Teaching Effectiveness System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butron, R) </t>
+  </si>
+  <si>
+    <t>Idago, A</t>
+  </si>
+  <si>
+    <t>Bagcatin, LK</t>
+  </si>
+  <si>
+    <t>Butron, R
+Idago, A
+Bagcatin, LK</t>
+  </si>
+  <si>
+    <t>Profile Management Module in BISU-Bilar Campus Human Resource Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot Password Feature in Profile Management Module in BISU-Bilar Campus Human Resource Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Info Feature in Profile Management Module in BISU-Bilar Campus Human Resource Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Profile Feature in Profile Management Module in BISU-Bilar Campus Human Resource Information System </t>
+  </si>
+  <si>
+    <t>Sirad, H</t>
+  </si>
+  <si>
+    <t>Avergonzado, J</t>
+  </si>
+  <si>
+    <t>Lingatong, R</t>
+  </si>
+  <si>
+    <t>Sirad, H
+Avergonzado, J
+Lingatong, R</t>
+  </si>
+  <si>
+    <t>Authentication of Users in BISU-Bilar Campus Department of Computer Science OJT System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication of Users in BISU-Bilar Campus Department of Computer Science OJT System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication of Users in BISU-Bilar Campus Department of Computer Science OJT System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication of Users in BISU-Bilar Campus Department of Computer Science OJT System </t>
+  </si>
+  <si>
+    <t>Babatuan, H</t>
+  </si>
+  <si>
+    <t>Perocho, C</t>
+  </si>
+  <si>
+    <t>Pacatang, A</t>
+  </si>
+  <si>
+    <t>Babatuan, H
+Perocho, C
+Pacatang, A</t>
+  </si>
+  <si>
+    <t>Financial Situation Module in Financial Checkup Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection Management in Financial Situation Module in Financial Checkup Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accumulation Management in Financial Situation Module in Financial Checkup Information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution Management in Financial Situation Module in Financial Checkup Information System </t>
+  </si>
+  <si>
+    <t>Masadas, QA</t>
+  </si>
+  <si>
+    <t>Bellingan, W</t>
+  </si>
+  <si>
+    <t>Añora, J</t>
+  </si>
+  <si>
+    <t>Masadas, QA
+Bellingan, W
+Añora, J</t>
+  </si>
+  <si>
+    <t>Development of Console-Based BISU-Bilar Library Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date and Time Borrowed in the Development of Console-Based BISU-Bilar Library Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of Student and Book borrowed in the Development of Console-Based BISU-Bilar Library Management System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date and Time Returned in the Development of Console-Based BISU-Bilar Library Management System </t>
+  </si>
+  <si>
+    <t>Amodia, J</t>
+  </si>
+  <si>
+    <t>Daverao, J</t>
+  </si>
+  <si>
+    <t>Tajale, KJ</t>
+  </si>
+  <si>
+    <t>Amodia, J
+Daverao, J
+Tajale, KJ</t>
+  </si>
+  <si>
+    <t>Optimizing Classroom Groupings Using Combinatorics/Optimizing Classroom Groupings Using Number Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sum Rule in Optimizing Classroom Groupings Using Combinatorics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Product Rule in Optimizing Classroom Groupings Using Combinatorics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Combinations Rule in Optimizing Classroom Groupings Using Combinatorics/Optimizing Classroom Groupings Using Number Theory </t>
+  </si>
+  <si>
+    <t>Luzano, J</t>
+  </si>
+  <si>
+    <t>Balde, C</t>
+  </si>
+  <si>
+    <t>Sarte, J</t>
+  </si>
+  <si>
+    <t>Luzano, J
+Balde, C
+Sarte, J</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>Authentication of Users in BISU-Bilar Campus Library Management System</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication of Users in BISU-Bilar Campus Library Management System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication of Users in BISU-Bilar Campus Library Management System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication of Users in BISU-Bilar Campus Library Management System </t>
+  </si>
+  <si>
+    <t>Jumawid, A</t>
+  </si>
+  <si>
+    <t>Betinol, MJ</t>
+  </si>
+  <si>
+    <t>Justol, J</t>
+  </si>
+  <si>
+    <t>Jumawid, A) 
+Betinol, MJ
+Justol, J</t>
+  </si>
+  <si>
+    <t>Forgot Password Module in BISU-Bilar Campus QR Code Contact Tracing System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using ID Number in Forgot Password Module in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Email in Forgot Password Module in BISU-Bilar Campus QR Code Contact Tracing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Name in Forgot Password Module in BISU-Bilar Campus QR Code Contact Tracing System </t>
+  </si>
+  <si>
+    <t>Baslot, MJR</t>
+  </si>
+  <si>
+    <t>Parocha, I</t>
+  </si>
+  <si>
+    <t>Organiza, L</t>
+  </si>
+  <si>
+    <t>Baslot, MJR
+Parocha, I
+Organiza, L</t>
+  </si>
+  <si>
+    <t>Reseach Log Module in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theses Management in Research Log Module in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects Management in Research Log Module in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Articles Management in Research Log Module in Makasa Laboratory Dissertations, Thesis, Capstone, Research Proposals, Projects Information System </t>
+  </si>
+  <si>
+    <t>Gamale, T</t>
+  </si>
+  <si>
+    <t>Arciosa, A</t>
+  </si>
+  <si>
+    <t>Gerona, B</t>
+  </si>
+  <si>
+    <t>Gamale, T
+Arciosa, A
+Gerona, B</t>
+  </si>
+  <si>
+    <t>Instructor 1 - Thesis Expert (BISU-Bilar Campus) 2nd Semester, S.Y. 2022-2023</t>
+  </si>
+  <si>
+    <t>Baral et al</t>
+  </si>
+  <si>
+    <t>SSG E-Voting System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oppus et al</t>
+  </si>
+  <si>
+    <t>Weather Monitoring System Using Arduino</t>
+  </si>
+  <si>
+    <t>Tiongson et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimCare: Appointment System </t>
+  </si>
+  <si>
+    <t>Boncales et al</t>
+  </si>
+  <si>
+    <t>BANTAY BAHA Flood Monitoring System Using Arduino</t>
+  </si>
+  <si>
+    <t>Musne et al</t>
+  </si>
+  <si>
+    <t>OSCA Online Management System</t>
+  </si>
+  <si>
+    <t>Galendez et al</t>
+  </si>
+  <si>
+    <t>Document  Tracking System</t>
+  </si>
+  <si>
+    <t>Sapong et al</t>
+  </si>
+  <si>
+    <t>Attendance Monitoring System Using Barcode and Voting System</t>
+  </si>
+  <si>
+    <t>Escober et al</t>
+  </si>
+  <si>
+    <t>Guidance Information Management System</t>
+  </si>
+  <si>
+    <t>Omac et al</t>
+  </si>
+  <si>
+    <t>Resident Profiling Management System</t>
+  </si>
+  <si>
+    <t>Aparece et al</t>
+  </si>
+  <si>
+    <t>Business Permit Profiling and Monitoring System in Municipality of Batuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Market place for freelancer of residence in municipality of Pilar </t>
+  </si>
+  <si>
+    <t>Amoguis et al</t>
+  </si>
+  <si>
+    <t>Compoc et al</t>
+  </si>
+  <si>
+    <t>Paz and Joseph Rice and Corn Mill Online Management System</t>
+  </si>
+  <si>
+    <t>Carsola et al</t>
+  </si>
+  <si>
+    <t>QuizBox: An Educational Mobile Quiz Game for Disaster Preparedness and Risk Reduction Management</t>
+  </si>
+  <si>
+    <t>Balane et al</t>
+  </si>
+  <si>
+    <t>FLS-GEM Monitoring System in the Province of Bohol</t>
+  </si>
+  <si>
+    <t>Malaran et al</t>
+  </si>
+  <si>
+    <t>Faculty Association Information System of Bohol Island State University</t>
+  </si>
+  <si>
+    <t>Abrau et al</t>
+  </si>
+  <si>
+    <t>Rice Farm Inventory System</t>
+  </si>
+  <si>
+    <t>Ampoloquio et al</t>
+  </si>
+  <si>
+    <t>Smart Boarding House Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAB Transport Services </t>
+  </si>
+  <si>
+    <t>Narbaja et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales and Inventory System of 2Mama’s Grill and Restaurant </t>
+  </si>
+  <si>
+    <t>Jumawid et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BISU Bilar Campus Map </t>
+  </si>
+  <si>
+    <t>Odal et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EyeChoice Optical Shop </t>
+  </si>
+  <si>
+    <t>Camposo et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alumni Record Management System </t>
+  </si>
+  <si>
+    <t>Alambatin et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optipets: AVMS </t>
+  </si>
+  <si>
+    <t>Panerio et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-tubig: Online Ordering System </t>
+  </si>
+  <si>
+    <t>Pasagad et al</t>
+  </si>
+  <si>
+    <t>Instructor 1 - Thesis Consultation (BISU-Main Campus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Notification Using GSM Module, Arduino, and Push Button Switch for Rice Milling Machine </t>
+  </si>
+  <si>
+    <t>Maputol et al</t>
+  </si>
+  <si>
+    <t>Instructor 1 - Faculty Instructions (Intermediate Programming/Discrete Structures 2/Web Development and Enterprises) 2nd Semester, S.Y. 2022-2023</t>
+  </si>
+  <si>
+    <t>Authentication of Users in BISU-Bilar Campus Computer Inventory System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Management in Authentication of Users in BISU-Bilar Campus Computer Inventory System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration Management in Authentication of Users in BISU-Bilar Campus Computer Inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management in Authentication of Users in BISU-Bilar Campus Computer Inventory System </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viewing of Personal Data in Authentication of Users in BISU-Bilar Campus Computer Inventory System </t>
+  </si>
+  <si>
+    <t>Lecame, Z</t>
+  </si>
+  <si>
+    <t>Idago, J</t>
+  </si>
+  <si>
+    <t>Painagan, CM</t>
+  </si>
+  <si>
+    <t>Perez, MH</t>
+  </si>
+  <si>
+    <t>Lecame, Z
+Idago, J
+Painagan, CM
+Perez, MH</t>
+  </si>
+  <si>
+    <t>Instructor 1 - Faculty Instructions (Computer Science On-the-Job Training) Summer Semester, S.Y. 2023-2024 &amp; Management Information System Unit-Fullstack</t>
+  </si>
+  <si>
+    <t>BISU-Bilar Campus Library Management Information System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +2354,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft Sans Serif"/>
@@ -101,13 +2412,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,23 +2746,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="52.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="52.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,34 +2776,6002 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>117</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>128</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>132</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>139.1</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>140</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>140.1</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>141</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>141.1</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>142</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>142.1</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>143</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>143.1</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>144</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>144.1</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>145</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>145.1</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>146</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>146.1</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>147</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>147.1</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>148</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>148.1</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>149</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>150</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>150.1</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>151</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>151.1</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>152</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>152.1</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>153</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>153.1</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>154</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>154.1</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>155</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>155.1</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>156</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>156.1</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>157</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>157.1</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>158</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>158.1</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>159</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>159.1</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>160</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>160.1</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>161</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>162</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>162.1</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>163</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>163.1</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>164</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>164.1</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>164.2</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>164.3</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>165</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>165.2</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>166</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>166.1</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>166.2</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>167</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>167.1</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>167.2</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>167.3</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>168</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>168.1</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>168.2</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>168.3</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>168.4</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>169</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>169.1</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>169.2</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>169.3</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>170</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>170.1</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>170.2</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>170.3</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>170.4</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>171</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>171.1</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>171.2</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>171.3</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>172</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>172.1</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>172.2</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>172.3</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>172.4</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>173</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>173.1</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>173.2</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>173.3</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>173.4</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>174</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>174.1</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>174.3</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>175</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>175.1</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>175.2</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>175.3</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>176</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>176.1</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>176.2</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>176.3</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>176.4</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>176.5</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>177</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>177.1</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>177.2</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>177.3</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>177.4</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>178</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>178.1</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>178.2</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>178.3</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>179</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>180</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>180.1</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>180.2</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>180.3</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>181</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>181.1</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>181.2</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>181.3</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>182</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>182.1</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>182.2</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>182.3</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>183</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>183.1</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>183.2</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>183.3</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>184</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>184.1</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>184.2</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>184.3</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>185</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>185.1</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>185.2</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>185.3</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>186</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>186.1</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>186.2</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>186.3</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>187</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>187.1</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>187.2</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>187.3</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>188</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>188.1</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>188.2</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>188.3</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>189</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>190</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>191</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>192</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>193</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>194</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>195</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>196</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>197</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>198</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>199</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>200</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>201</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>202</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>203</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>204</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>205</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>206</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>207</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>208</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>209</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>210</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>211</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>212</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>213</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>214</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>214.1</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>214.2</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>214.3</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>214.4</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>215</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>723</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
+++ b/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2b7f844a7ade77c/Documents/GitHub/ACADEMIC-SCHOLARLY-AND-PRACTICAL-APPLIED-WORKS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B49B52A3-B6CA-4DEF-828A-6BBF2E9D54A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AA6B7A1-28EF-4A13-97CB-1C3EE6910DC4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B49B52A3-B6CA-4DEF-828A-6BBF2E9D54A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A0332A3-619C-48C7-8782-B3772FF5E229}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2412,7 +2412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2429,9 +2429,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2447,6 +2444,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2748,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5890,11 +5891,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>152.19999999999999</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>382</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -6649,11 +6650,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>165.1</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="5" t="s">
         <v>470</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -6666,11 +6667,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>165.2</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>471</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -8776,6 +8777,71 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <NotebookType xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <FolderType xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Teachers xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <DefaultSectionNames xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Owner xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Is_Collaboration_Space_Locked xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d7bec7bf-3da8-4078-8aa6-220bab9f77bc" xsi:nil="true"/>
+    <CultureName xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Distribution_Groups xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <AppVersion xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Invited_Students xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Student_Groups xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Math_Settings xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Templates xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <TeamsChannelId xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Invited_Teachers xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Students xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Self_Registration_Enabled xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+    <LMS_Mappings xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010039D1DEEADAC1A5458EF0D48482917E3D" ma:contentTypeVersion="36" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7aea47dc6ae66664ea90708d5997129">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xmlns:ns3="d7bec7bf-3da8-4078-8aa6-220bab9f77bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98593b28f1f0b1cf1ed3518b24bbb869" ns2:_="" ns3:_="">
     <xsd:import namespace="64465c1d-2775-432b-8ccf-8b9a5bbd2975"/>
@@ -9206,72 +9272,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8EB3D1-86FA-41D2-9F48-D030848D8DA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64465c1d-2775-432b-8ccf-8b9a5bbd2975"/>
+    <ds:schemaRef ds:uri="d7bec7bf-3da8-4078-8aa6-220bab9f77bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <NotebookType xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <FolderType xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Teachers xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <DefaultSectionNames xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Owner xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Is_Collaboration_Space_Locked xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d7bec7bf-3da8-4078-8aa6-220bab9f77bc" xsi:nil="true"/>
-    <CultureName xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Distribution_Groups xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <AppVersion xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Invited_Students xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Student_Groups xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Math_Settings xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Templates xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <TeamsChannelId xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Invited_Teachers xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Students xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Self_Registration_Enabled xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-    <LMS_Mappings xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE1C7E4-455D-434D-B571-2B64DF7AE606}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3E60AE-CFEB-40B7-B274-53261BB6A31F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9288,23 +9308,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE1C7E4-455D-434D-B571-2B64DF7AE606}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8EB3D1-86FA-41D2-9F48-D030848D8DA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="64465c1d-2775-432b-8ccf-8b9a5bbd2975"/>
-    <ds:schemaRef ds:uri="d7bec7bf-3da8-4078-8aa6-220bab9f77bc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
+++ b/Technical Reports-Research Proposals-Projects-Thesis-Capstone Projects-Dissertations-Version-3.xlsx
@@ -2447,6 +2447,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2749,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
       <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
@@ -8777,6 +8781,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <NotebookType xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
@@ -8830,15 +8843,6 @@
     <LMS_Mappings xmlns="64465c1d-2775-432b-8ccf-8b9a5bbd2975" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9273,20 +9277,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE1C7E4-455D-434D-B571-2B64DF7AE606}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8EB3D1-86FA-41D2-9F48-D030848D8DA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="64465c1d-2775-432b-8ccf-8b9a5bbd2975"/>
     <ds:schemaRef ds:uri="d7bec7bf-3da8-4078-8aa6-220bab9f77bc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE1C7E4-455D-434D-B571-2B64DF7AE606}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
